--- a/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/cloning_progress.xlsx
+++ b/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/cloning_progress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="6440" windowHeight="5680"/>
+    <workbookView activeTab="0" windowWidth="12640" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" tabSelected="1">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -821,6 +821,9 @@
       <c r="E22" t="s">
         <v>2</v>
       </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:256" ht="13.5">
       <c r="A23">

--- a/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/cloning_progress.xlsx
+++ b/notebook/validate_cis_display/confirm_cis_display_with_fluorescent_protein/cloning_progress.xlsx
@@ -5,20 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Round 3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Round 4" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet2"</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet3"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
   <si>
     <t xml:space="preserve">Construct</t>
   </si>
@@ -71,10 +68,58 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">repA-seq-rev-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p135</t>
   </si>
 </sst>
 </file>
@@ -204,13 +249,13 @@
   </sheetPr>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.61"/>
@@ -822,6 +867,12 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -877,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
@@ -888,7 +939,7 @@
         <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -908,7 +959,7 @@
         <v>155</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -928,7 +979,7 @@
         <v>157</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -948,7 +999,7 @@
         <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -968,7 +1019,7 @@
         <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -988,7 +1039,7 @@
         <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -1008,7 +1059,7 @@
         <v>163</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1028,7 +1079,7 @@
         <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1059,43 +1110,304 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="10.45"/>
   </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="10.45"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
